--- a/biology/Botanique/Gac/Gac.xlsx
+++ b/biology/Botanique/Gac/Gac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Momordica cochinchinensis est une espèce de plante à fleurs de la famille des Cucurbitaceae dont le fruit, couramment appelé gac (vietnamien gấc, prononcé [ɣək]), courge de Cochinchine, concombre amer, courge douce ou fruit du ciel, est un mets d'Asie du Sud que l'on trouve principalement dans les régions du Sud de la Chine mais aussi en Thaïlande, au Laos, en Birmanie, au Cambodge, au Viêt Nam ainsi qu'au Nord-Est de l'Australie.
 </t>
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le gac est un fruit hérissé de piquants, orange à rouge vif quand il est mûr (sinon il est vert). Il est produit par une plante rampante tropicale appartenant à la famille des Cucurbitaceae et au genre Momordica. Sa chair est jaune et ses graines rouges et gélatineuses[1].  
+Le gac est un fruit hérissé de piquants, orange à rouge vif quand il est mûr (sinon il est vert). Il est produit par une plante rampante tropicale appartenant à la famille des Cucurbitaceae et au genre Momordica. Sa chair est jaune et ses graines rouges et gélatineuses.  
 	Momordica cochinchinensis
 			Panneau descriptif en thaï, au Jardin botanique de la reine Sirikit, en Thaïlande.
 			Jeune plante rampante en pot.
@@ -550,13 +564,15 @@
           <t>Consommation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arilles contenus dans les fruits mûrs se consomment frais ou cuits.
 Au Vietnam, les arilles sont cuits avec du riz pour faire un plat traditionnel appelé xôi gấc, servi lors des mariages et de la nouvelle année.
 Ils peuvent être conservés en les séchant et en les réduisant en poudre, ou en extrayant l'huile par pression. Il faut environ 100 kg de fruits frais pour obtenir 1 litre d'huile de gac.
-Les fruits immatures, une fois pelés, et les jeunes feuilles sont bouillis et incorporés dans les caris, notamment en Inde [2]. La peau externe, la pulpe (mésocarpe) et les graines à maturité ne sont pas consommables ; la pulpe et la peau sont utilisées comme engrais ou pour nourrir des bovins.
-Au Sri Lanka, le gac est préparé en curry, et en Thaïlande, il est accommodé en crème glacée[3].
+Les fruits immatures, une fois pelés, et les jeunes feuilles sont bouillis et incorporés dans les caris, notamment en Inde . La peau externe, la pulpe (mésocarpe) et les graines à maturité ne sont pas consommables ; la pulpe et la peau sont utilisées comme engrais ou pour nourrir des bovins.
+Au Sri Lanka, le gac est préparé en curry, et en Thaïlande, il est accommodé en crème glacée.
 </t>
         </is>
       </c>
@@ -585,10 +601,12 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le gac fait partie de la pharmacopée traditionnelle d'Asie du Sud-Est. Il est utilisé pour ses propriétés médicinales depuis au moins 1200 ans en Chine et au Vietnam[4]. Les graines de gac, nommées mù biē zǐ ont divers usages thérapeutiques externes et internes [5]
-Du fait de leur haute teneur en bêta-carotène et lycopène, des extraits des arilles de gac servent à produire des compléments alimentaires[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gac fait partie de la pharmacopée traditionnelle d'Asie du Sud-Est. Il est utilisé pour ses propriétés médicinales depuis au moins 1200 ans en Chine et au Vietnam. Les graines de gac, nommées mù biē zǐ ont divers usages thérapeutiques externes et internes 
+Du fait de leur haute teneur en bêta-carotène et lycopène, des extraits des arilles de gac servent à produire des compléments alimentaires.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(Lour.) Spreng., Syst. Veg. 3: 14 1826.</t>
         </is>
